--- a/Project Planning/Weekly project plans/1.xlsx
+++ b/Project Planning/Weekly project plans/1.xlsx
@@ -1,25 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\KiCad_projects\arduinoCalculator\Project Planning\Weekly project plans\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F9E0D5-0110-404E-A251-22A6213671DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Make draw.io diagram of product</t>
+  </si>
+  <si>
+    <t>Pick suitable micro controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make schematic outline frame </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +80,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +364,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B6:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project Planning/Weekly project plans/1.xlsx
+++ b/Project Planning/Weekly project plans/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\KiCad_projects\arduinoCalculator\Project Planning\Weekly project plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F9E0D5-0110-404E-A251-22A6213671DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD2F5C9-E0C8-4259-BF34-C27D0626F0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Make draw.io diagram of product</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Make schematic outline frame </t>
+  </si>
+  <si>
+    <t>u-blox® NORA-W106 (ESP32-S3)</t>
   </si>
 </sst>
 </file>
@@ -60,12 +63,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,9 +91,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,25 +375,28 @@
   <dimension ref="B6:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>0</v>
       </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
